--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="431">
   <si>
     <t>Path</t>
   </si>
@@ -310,38 +310,55 @@
     <t>Measure.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>measureParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter}
+</t>
+  </si>
+  <si>
+    <t>Defined parameter options implemented by the measure</t>
+  </si>
+  <si>
+    <t>Measure.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Measure.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1040,6 +1057,9 @@
     <t>Measure.group.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1100,9 +1120,6 @@
     <t>Slice based on group.population.code pattern</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Measure.group.population.id</t>
   </si>
   <si>
@@ -1119,9 +1136,6 @@
   </si>
   <si>
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | care-gap</t>
-  </si>
-  <si>
-    <t>The type of population criteria.</t>
   </si>
   <si>
     <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-population-type</t>
@@ -1156,12 +1170,15 @@
   </si>
   <si>
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation</t>
+  </si>
+  <si>
+    <t>The type of population criteria.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="inital-population"/&gt;
+    &lt;code value="initial-population"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1170,23 +1187,23 @@
   </si>
   <si>
     <t>Numerator</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
-    &lt;code value="denominator-exclusion"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Denominator</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
     &lt;code value="numerator"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/measure-population"/&gt;
+    &lt;code value="denominator"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1493,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM105"/>
+  <dimension ref="A1:AM106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1503,7 +1520,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2441,7 +2458,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2460,17 +2477,15 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -2507,16 +2522,14 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -2543,16 +2556,18 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2565,26 +2580,22 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2632,7 +2643,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2641,7 +2652,7 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>100</v>
@@ -2661,42 +2672,42 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2745,36 +2756,36 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2785,7 +2796,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2797,19 +2808,19 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2858,13 +2869,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2873,13 +2884,13 @@
         <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2887,7 +2898,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2898,7 +2909,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2910,18 +2921,20 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2969,13 +2982,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2984,13 +2997,13 @@
         <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2998,7 +3011,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3024,17 +3037,15 @@
         <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3091,16 +3102,16 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3111,7 +3122,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3137,15 +3148,17 @@
         <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
       </c>
@@ -3193,7 +3206,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3202,13 +3215,13 @@
         <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3242,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>50</v>
@@ -3253,7 +3266,9 @@
       <c r="L16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3317,7 +3332,7 @@
         <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3331,7 +3346,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3339,7 +3354,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>48</v>
@@ -3348,23 +3363,21 @@
         <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3389,13 +3402,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3413,10 +3426,10 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>48</v>
@@ -3428,10 +3441,10 @@
         <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3442,7 +3455,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3450,35 +3463,33 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3502,13 +3513,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3526,10 +3537,10 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>48</v>
@@ -3541,10 +3552,10 @@
         <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3555,7 +3566,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3566,7 +3577,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3575,27 +3586,27 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3615,13 +3626,13 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3639,7 +3650,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3654,10 +3665,10 @@
         <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3668,11 +3679,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3688,25 +3699,27 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3726,13 +3739,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3750,7 +3763,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3765,10 +3778,10 @@
         <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3779,11 +3792,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3802,20 +3815,18 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3878,10 +3889,10 @@
         <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3903,7 +3914,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3915,18 +3926,20 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3974,13 +3987,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3989,10 +4002,10 @@
         <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4003,7 +4016,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4014,7 +4027,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -4026,16 +4039,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4085,13 +4098,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -4100,7 +4113,7 @@
         <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4114,7 +4127,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4125,7 +4138,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4137,20 +4150,18 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4198,13 +4209,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4213,7 +4224,7 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -4227,7 +4238,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4250,18 +4261,20 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4285,13 +4298,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4309,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4324,7 +4337,7 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -4338,7 +4351,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4349,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4358,19 +4371,19 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4396,13 +4409,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4420,13 +4433,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4438,10 +4451,10 @@
         <v>212</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4449,7 +4462,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4472,15 +4485,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4529,7 +4544,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4544,13 +4559,13 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4558,11 +4573,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4581,18 +4596,16 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4655,13 +4668,13 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4669,11 +4682,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4692,18 +4705,18 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4766,13 +4779,13 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4780,7 +4793,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4803,7 +4816,7 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>230</v>
@@ -4814,9 +4827,7 @@
       <c r="M30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4879,13 +4890,13 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4893,7 +4904,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4913,22 +4924,22 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4977,7 +4988,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4992,13 +5003,13 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -5006,7 +5017,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5017,7 +5028,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -5026,18 +5037,20 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
         <v>245</v>
       </c>
@@ -5064,13 +5077,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5088,13 +5101,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -5103,13 +5116,13 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5117,7 +5130,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5140,16 +5153,18 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5173,13 +5188,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5197,7 +5212,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5221,12 +5236,12 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5249,13 +5264,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5306,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5330,12 +5345,12 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5358,13 +5373,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5415,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5439,12 +5454,12 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5467,13 +5482,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5524,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5548,12 +5563,12 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5576,20 +5591,16 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5637,7 +5648,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5661,12 +5672,12 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5689,16 +5700,20 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5746,7 +5761,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5775,7 +5790,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5786,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5795,21 +5810,19 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5857,13 +5870,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5886,7 +5899,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5909,16 +5922,18 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5942,11 +5957,13 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5964,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5993,7 +6010,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6016,13 +6033,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6049,11 +6066,9 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
         <v>285</v>
       </c>
@@ -6073,7 +6088,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6113,7 +6128,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -6125,7 +6140,7 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>287</v>
@@ -6158,7 +6173,7 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>289</v>
@@ -6188,7 +6203,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6222,7 +6237,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -6234,7 +6249,7 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>292</v>
@@ -6242,9 +6257,7 @@
       <c r="L43" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6269,13 +6282,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6299,7 +6312,7 @@
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6322,7 +6335,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6348,13 +6361,13 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6404,7 +6417,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6433,7 +6446,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6456,18 +6469,18 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
         <v>302</v>
       </c>
+      <c r="M45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6515,7 +6528,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6544,7 +6557,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6567,16 +6580,18 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6624,7 +6639,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6653,7 +6668,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6676,18 +6691,16 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6711,13 +6724,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6735,7 +6748,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6764,7 +6777,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6775,7 +6788,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6787,17 +6800,17 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6822,13 +6835,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6846,13 +6859,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6875,7 +6888,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6886,7 +6899,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6898,17 +6911,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6957,13 +6970,13 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6986,7 +6999,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6994,7 +7007,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>48</v>
@@ -7006,10 +7019,10 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>322</v>
@@ -7018,7 +7031,9 @@
         <v>323</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7066,13 +7081,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7095,7 +7110,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7103,7 +7118,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>48</v>
@@ -7118,13 +7133,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7175,19 +7190,19 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
@@ -7199,7 +7214,7 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7208,14 +7223,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7227,17 +7242,15 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7286,19 +7299,19 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7310,16 +7323,16 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7332,26 +7345,24 @@
         <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7399,7 +7410,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7423,44 +7434,48 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7508,19 +7523,19 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
@@ -7532,12 +7547,12 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7560,13 +7575,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7617,7 +7632,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7646,7 +7661,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7654,10 +7669,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7669,13 +7684,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7714,25 +7729,25 @@
         <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7755,7 +7770,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7763,10 +7778,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7778,13 +7793,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>351</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7823,31 +7838,31 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -7859,23 +7874,23 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7887,17 +7902,15 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7946,19 +7959,19 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
@@ -7970,16 +7983,16 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7992,26 +8005,24 @@
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8059,7 +8070,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8083,44 +8094,48 @@
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8144,11 +8159,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8166,19 +8183,19 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -8190,12 +8207,12 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8218,10 +8235,10 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>360</v>
@@ -8251,13 +8268,11 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8275,7 +8290,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8304,7 +8319,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8312,7 +8327,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>48</v>
@@ -8327,7 +8342,7 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>363</v>
@@ -8335,9 +8350,7 @@
       <c r="L62" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8386,10 +8399,10 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>48</v>
@@ -8415,11 +8428,9 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8440,15 +8451,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8497,13 +8510,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8526,15 +8539,17 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>48</v>
@@ -8549,13 +8564,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8606,19 +8621,19 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
@@ -8630,23 +8645,23 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
@@ -8658,17 +8673,15 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8717,19 +8730,19 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
@@ -8741,16 +8754,16 @@
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8763,26 +8776,24 @@
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8830,7 +8841,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8854,44 +8865,48 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -8900,7 +8915,7 @@
         <v>40</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>40</v>
@@ -8915,11 +8930,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8937,19 +8954,19 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -8961,12 +8978,12 @@
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8974,7 +8991,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>48</v>
@@ -8989,13 +9006,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9007,7 +9024,7 @@
         <v>40</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>40</v>
@@ -9022,13 +9039,11 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9046,7 +9061,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9075,7 +9090,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9083,7 +9098,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>48</v>
@@ -9098,7 +9113,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>363</v>
@@ -9106,9 +9121,7 @@
       <c r="L69" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9157,10 +9170,10 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>48</v>
@@ -9186,11 +9199,9 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9211,15 +9222,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9268,13 +9281,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9297,15 +9310,17 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>48</v>
@@ -9320,13 +9335,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9377,19 +9392,19 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
@@ -9401,23 +9416,23 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9429,17 +9444,15 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9488,19 +9501,19 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -9512,16 +9525,16 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9534,26 +9547,24 @@
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9601,7 +9612,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9625,44 +9636,48 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9671,7 +9686,7 @@
         <v>40</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>40</v>
@@ -9686,11 +9701,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9708,19 +9725,19 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
@@ -9732,12 +9749,12 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9745,7 +9762,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>48</v>
@@ -9760,13 +9777,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9778,7 +9795,7 @@
         <v>40</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>40</v>
@@ -9793,13 +9810,11 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9817,7 +9832,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9846,7 +9861,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9854,7 +9869,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>48</v>
@@ -9869,7 +9884,7 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>363</v>
@@ -9877,9 +9892,7 @@
       <c r="L76" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9928,10 +9941,10 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>48</v>
@@ -9957,11 +9970,9 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>40</v>
       </c>
@@ -9982,15 +9993,17 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10039,13 +10052,13 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -10068,15 +10081,17 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>48</v>
@@ -10091,13 +10106,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10148,19 +10163,19 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
@@ -10172,23 +10187,23 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -10200,17 +10215,15 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10259,19 +10272,19 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
@@ -10283,16 +10296,16 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10305,26 +10318,24 @@
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10372,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10396,44 +10407,48 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10442,7 +10457,7 @@
         <v>40</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>373</v>
+        <v>40</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>40</v>
@@ -10457,11 +10472,13 @@
         <v>40</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y81" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>40</v>
@@ -10479,19 +10496,19 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
@@ -10503,12 +10520,12 @@
         <v>40</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10516,7 +10533,7 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>48</v>
@@ -10531,13 +10548,13 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10549,7 +10566,7 @@
         <v>40</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>40</v>
@@ -10564,13 +10581,11 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10588,7 +10603,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10617,7 +10632,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10625,7 +10640,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>48</v>
@@ -10640,7 +10655,7 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>363</v>
@@ -10648,9 +10663,7 @@
       <c r="L83" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10699,10 +10712,10 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>48</v>
@@ -10728,7 +10741,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10736,10 +10749,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10751,15 +10764,17 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10808,13 +10823,13 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
@@ -10837,7 +10852,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10848,7 +10863,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -10860,13 +10875,13 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10917,19 +10932,19 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
@@ -10941,23 +10956,23 @@
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10969,17 +10984,15 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11028,19 +11041,19 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>40</v>
@@ -11052,16 +11065,16 @@
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11074,26 +11087,24 @@
         <v>40</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11141,7 +11152,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11165,44 +11176,48 @@
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11250,19 +11265,19 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>40</v>
@@ -11274,12 +11289,12 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11302,13 +11317,13 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11359,7 +11374,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11388,7 +11403,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11411,13 +11426,13 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11468,7 +11483,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11497,7 +11512,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11508,7 +11523,7 @@
         <v>41</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>40</v>
@@ -11520,17 +11535,15 @@
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11579,13 +11592,13 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>40</v>
@@ -11608,7 +11621,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11619,7 +11632,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11631,15 +11644,17 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11688,19 +11703,19 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>40</v>
@@ -11712,23 +11727,23 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>40</v>
@@ -11740,17 +11755,15 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -11799,19 +11812,19 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>40</v>
@@ -11823,16 +11836,16 @@
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11845,26 +11858,24 @@
         <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
       </c>
@@ -11912,7 +11923,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11936,44 +11947,48 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
       </c>
@@ -12021,19 +12036,19 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>40</v>
@@ -12045,12 +12060,12 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12073,13 +12088,13 @@
         <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12130,7 +12145,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -12159,7 +12174,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12167,7 +12182,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>48</v>
@@ -12182,13 +12197,13 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12239,10 +12254,10 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>48</v>
@@ -12268,7 +12283,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12276,10 +12291,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
@@ -12291,17 +12306,15 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12350,13 +12363,13 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
@@ -12379,7 +12392,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12390,7 +12403,7 @@
         <v>41</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -12402,15 +12415,17 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12459,19 +12474,19 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>40</v>
@@ -12483,23 +12498,23 @@
         <v>40</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>40</v>
@@ -12511,17 +12526,15 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12570,19 +12583,19 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>40</v>
@@ -12594,16 +12607,16 @@
         <v>40</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12616,26 +12629,24 @@
         <v>40</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>40</v>
       </c>
@@ -12683,7 +12694,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12707,44 +12718,48 @@
         <v>40</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>40</v>
       </c>
@@ -12792,19 +12807,19 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>40</v>
@@ -12816,12 +12831,12 @@
         <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12832,7 +12847,7 @@
         <v>41</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>40</v>
@@ -12844,13 +12859,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12877,13 +12892,13 @@
         <v>40</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>419</v>
+        <v>40</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>40</v>
@@ -12901,13 +12916,13 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>40</v>
@@ -12941,7 +12956,7 @@
         <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
@@ -12953,7 +12968,7 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>421</v>
@@ -12986,13 +13001,13 @@
         <v>40</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>40</v>
+        <v>423</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>40</v>
@@ -13016,7 +13031,7 @@
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>40</v>
@@ -13039,7 +13054,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13047,7 +13062,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>48</v>
@@ -13062,13 +13077,13 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13119,10 +13134,10 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>48</v>
@@ -13146,8 +13161,117 @@
         <v>40</v>
       </c>
     </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM105">
+  <autoFilter ref="A1:AM106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13157,7 +13281,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1781,41 +1781,41 @@
     <col min="1" max="1" width="51.375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="139.4375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.4453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.94921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.05859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="90.48828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,7 +268,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>Measure.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Business version of the measure</t>
@@ -3293,16 +3297,16 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3367,10 +3371,10 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3381,7 +3385,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3404,19 +3408,19 @@
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3465,7 +3469,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3474,7 +3478,7 @@
         <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3494,7 +3498,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3517,16 +3521,16 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3576,7 +3580,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3591,7 +3595,7 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3605,7 +3609,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3628,13 +3632,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3685,7 +3689,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3714,7 +3718,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3740,13 +3744,13 @@
         <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3772,13 +3776,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3796,7 +3800,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>82</v>
@@ -3811,10 +3815,10 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3825,7 +3829,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3848,19 +3852,19 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3909,7 +3913,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3924,10 +3928,10 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3938,7 +3942,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3961,23 +3965,23 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>74</v>
@@ -3998,13 +4002,13 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -4022,7 +4026,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4051,11 +4055,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4074,16 +4078,16 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4133,7 +4137,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4148,10 +4152,10 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4185,19 +4189,19 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4246,7 +4250,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4261,10 +4265,10 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4275,7 +4279,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4298,16 +4302,16 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4357,7 +4361,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4372,7 +4376,7 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4409,16 +4413,16 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4468,7 +4472,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4483,7 +4487,7 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4497,7 +4501,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4520,19 +4524,19 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4581,7 +4585,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4596,7 +4600,7 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4610,7 +4614,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4633,16 +4637,16 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4668,13 +4672,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4692,7 +4696,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4707,7 +4711,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4721,7 +4725,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4744,16 +4748,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4803,7 +4807,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4818,10 +4822,10 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>159</v>
@@ -4832,7 +4836,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4855,13 +4859,13 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4912,7 +4916,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4941,11 +4945,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4964,17 +4968,17 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -5023,7 +5027,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5038,7 +5042,7 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5075,16 +5079,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5134,7 +5138,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5149,7 +5153,7 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5163,7 +5167,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5186,19 +5190,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5247,7 +5251,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5262,7 +5266,7 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5276,7 +5280,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,19 +5303,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5360,7 +5364,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5375,7 +5379,7 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5389,7 +5393,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5412,17 +5416,17 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5447,13 +5451,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5471,7 +5475,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5500,7 +5504,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5523,13 +5527,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5580,7 +5584,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5604,12 +5608,12 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5632,13 +5636,13 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5689,7 +5693,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5718,7 +5722,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5741,13 +5745,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5798,7 +5802,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5822,12 +5826,12 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5850,13 +5854,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5907,7 +5911,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5931,12 +5935,12 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5959,19 +5963,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -6020,7 +6024,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6049,7 +6053,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6072,13 +6076,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6129,7 +6133,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6158,7 +6162,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6181,17 +6185,17 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6240,7 +6244,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6269,7 +6273,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6292,13 +6296,13 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6325,11 +6329,11 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6347,7 +6351,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6376,7 +6380,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6399,13 +6403,13 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6432,13 +6436,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6456,7 +6460,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6485,7 +6489,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6508,13 +6512,13 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6541,13 +6545,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6565,7 +6569,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6594,7 +6598,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6617,16 +6621,16 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6676,7 +6680,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6705,7 +6709,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6728,16 +6732,16 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6787,7 +6791,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6816,7 +6820,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6839,17 +6843,17 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6898,7 +6902,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6927,7 +6931,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6950,13 +6954,13 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7007,7 +7011,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7036,7 +7040,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7059,17 +7063,17 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7094,13 +7098,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -7118,7 +7122,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7147,7 +7151,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7170,17 +7174,17 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7229,7 +7233,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7258,7 +7262,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7281,17 +7285,17 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7340,7 +7344,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7369,7 +7373,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7392,13 +7396,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7449,7 +7453,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7478,7 +7482,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7501,13 +7505,13 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7558,7 +7562,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7582,12 +7586,12 @@
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7613,10 +7617,10 @@
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>142</v>
@@ -7669,7 +7673,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7693,16 +7697,16 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7724,10 +7728,10 @@
         <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>142</v>
@@ -7782,7 +7786,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7811,7 +7815,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7834,13 +7838,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7891,7 +7895,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7920,7 +7924,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7943,13 +7947,13 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8000,7 +8004,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8029,7 +8033,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8037,7 +8041,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>76</v>
@@ -8052,13 +8056,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8097,10 +8101,10 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
@@ -8109,7 +8113,7 @@
         <v>132</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8138,7 +8142,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8161,13 +8165,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8218,7 +8222,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8242,12 +8246,12 @@
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8273,10 +8277,10 @@
         <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>142</v>
@@ -8329,7 +8333,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8353,16 +8357,16 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8384,10 +8388,10 @@
         <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>142</v>
@@ -8442,7 +8446,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8471,7 +8475,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8494,13 +8498,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8527,11 +8531,11 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8549,7 +8553,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8578,7 +8582,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8601,13 +8605,13 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8658,7 +8662,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8687,7 +8691,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8710,16 +8714,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8769,7 +8773,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>82</v>
@@ -8798,10 +8802,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>74</v>
@@ -8823,13 +8827,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8880,7 +8884,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8909,7 +8913,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8932,13 +8936,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8989,7 +8993,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9013,12 +9017,12 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9044,10 +9048,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>142</v>
@@ -9100,7 +9104,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9124,16 +9128,16 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9155,10 +9159,10 @@
         <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>142</v>
@@ -9213,7 +9217,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9242,7 +9246,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9265,13 +9269,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9283,7 +9287,7 @@
         <v>74</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>74</v>
@@ -9298,11 +9302,11 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -9320,7 +9324,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9349,7 +9353,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9372,13 +9376,13 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9429,7 +9433,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9458,7 +9462,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9481,16 +9485,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9540,7 +9544,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>82</v>
@@ -9569,10 +9573,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
@@ -9594,13 +9598,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9651,7 +9655,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9680,7 +9684,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9703,13 +9707,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9760,7 +9764,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9784,12 +9788,12 @@
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9815,10 +9819,10 @@
         <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>142</v>
@@ -9871,7 +9875,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9895,16 +9899,16 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9926,10 +9930,10 @@
         <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>142</v>
@@ -9984,7 +9988,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10013,7 +10017,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10036,13 +10040,13 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10054,7 +10058,7 @@
         <v>74</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>74</v>
@@ -10069,11 +10073,11 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
@@ -10091,7 +10095,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10120,7 +10124,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10143,13 +10147,13 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10200,7 +10204,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10233,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10252,16 +10256,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10311,7 +10315,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>82</v>
@@ -10340,10 +10344,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>74</v>
@@ -10365,13 +10369,13 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10422,7 +10426,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10451,7 +10455,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10474,13 +10478,13 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10531,7 +10535,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10555,12 +10559,12 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10586,10 +10590,10 @@
         <v>128</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>142</v>
@@ -10642,7 +10646,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10666,16 +10670,16 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10697,10 +10701,10 @@
         <v>128</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>142</v>
@@ -10755,7 +10759,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10784,7 +10788,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10807,13 +10811,13 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10825,7 +10829,7 @@
         <v>74</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>74</v>
@@ -10840,11 +10844,11 @@
         <v>74</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>74</v>
@@ -10862,7 +10866,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10891,7 +10895,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10914,13 +10918,13 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10971,7 +10975,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11000,7 +11004,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11023,16 +11027,16 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11082,7 +11086,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>82</v>
@@ -11111,10 +11115,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>74</v>
@@ -11136,13 +11140,13 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11193,7 +11197,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11222,7 +11226,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11245,13 +11249,13 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11302,7 +11306,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11326,12 +11330,12 @@
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11357,10 +11361,10 @@
         <v>128</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>142</v>
@@ -11413,7 +11417,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11437,16 +11441,16 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11468,10 +11472,10 @@
         <v>128</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>142</v>
@@ -11526,7 +11530,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11555,7 +11559,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11578,13 +11582,13 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11596,7 +11600,7 @@
         <v>74</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>74</v>
@@ -11611,11 +11615,11 @@
         <v>74</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>74</v>
@@ -11633,7 +11637,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11662,7 +11666,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11685,13 +11689,13 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11742,7 +11746,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11771,7 +11775,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11794,16 +11798,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11853,7 +11857,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>82</v>
@@ -11882,7 +11886,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11905,13 +11909,13 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11962,7 +11966,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11991,7 +11995,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12014,13 +12018,13 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12071,7 +12075,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12095,12 +12099,12 @@
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12126,10 +12130,10 @@
         <v>128</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>142</v>
@@ -12182,7 +12186,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -12206,16 +12210,16 @@
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12237,10 +12241,10 @@
         <v>128</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>142</v>
@@ -12295,7 +12299,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -12324,7 +12328,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12347,13 +12351,13 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12404,7 +12408,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12433,7 +12437,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12456,13 +12460,13 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12513,7 +12517,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -12542,7 +12546,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12565,13 +12569,13 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12622,7 +12626,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -12651,7 +12655,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12674,16 +12678,16 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12733,7 +12737,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -12762,7 +12766,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12785,13 +12789,13 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12842,7 +12846,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -12866,12 +12870,12 @@
         <v>74</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12897,10 +12901,10 @@
         <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>142</v>
@@ -12953,7 +12957,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -12977,16 +12981,16 @@
         <v>74</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13008,10 +13012,10 @@
         <v>128</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>142</v>
@@ -13066,7 +13070,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13095,7 +13099,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13118,13 +13122,13 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13175,7 +13179,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13204,7 +13208,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13227,13 +13231,13 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13284,7 +13288,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13313,7 +13317,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13336,13 +13340,13 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13393,7 +13397,7 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>82</v>
@@ -13422,7 +13426,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13445,16 +13449,16 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13504,7 +13508,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -13533,7 +13537,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13556,13 +13560,13 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13613,7 +13617,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -13637,12 +13641,12 @@
         <v>74</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13668,10 +13672,10 @@
         <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>142</v>
@@ -13724,7 +13728,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -13748,16 +13752,16 @@
         <v>74</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13779,10 +13783,10 @@
         <v>128</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>142</v>
@@ -13837,7 +13841,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -13866,7 +13870,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13889,13 +13893,13 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13946,7 +13950,7 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -13975,7 +13979,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13998,13 +14002,13 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14031,13 +14035,13 @@
         <v>74</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>74</v>
@@ -14055,7 +14059,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14084,7 +14088,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14107,13 +14111,13 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14164,7 +14168,7 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14193,7 +14197,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14216,13 +14220,13 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14273,7 +14277,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-quality-measure.xlsx
+++ b/StructureDefinition-quality-measure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/quality-measure</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/quality-measure</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>The Measure resource provides the definition of a quality measure.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mea-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}mea-1:Stratifier SHALL be either a single criteria or a set of criteria components {group.stratifier.all((code | description | criteria).exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -287,7 +283,7 @@
     <t>Measure.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -437,7 +433,7 @@
     <t>measureParameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-parameter}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-parameter}
 </t>
   </si>
   <si>
@@ -1010,7 +1006,7 @@
     <t>Indicates how the calculation is performed for the measure, proportion or ratio only (continuous-variable and cohort scoring not supported by this profile). The value set is extensible, allowing additional measure scoring types to be represented.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-scoring</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/quality-measure-scoring</t>
   </si>
   <si>
     <t>Measure.compositeScoring</t>
@@ -1242,7 +1238,7 @@
     <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | care-gap</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/quality-measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/quality-measure-population-type</t>
   </si>
   <si>
     <t>Measure.group.population.description</t>
@@ -1287,7 +1283,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/measure-population-type</t>
   </si>
   <si>
     <t>Numerator</t>
@@ -1317,7 +1313,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/measure-population-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/measure-population-type"/&gt;
     &lt;code value="care-gap"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1806,7 +1802,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="139.44140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.98828125" customWidth="true" bestFit="true"/>
@@ -2036,7 +2032,7 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>46</v>
@@ -2048,12 +2044,12 @@
         <v>74</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2064,28 +2060,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2135,13 +2131,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -2164,7 +2160,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2175,7 +2171,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -2187,13 +2183,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2244,36 +2240,36 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2284,28 +2280,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2355,19 +2351,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -2384,7 +2380,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2395,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -2407,16 +2403,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2442,43 +2438,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2495,18 +2491,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2518,16 +2514,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2577,40 +2573,40 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2629,16 +2625,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2688,7 +2684,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2712,12 +2708,12 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2740,13 +2736,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2785,17 +2781,17 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2807,7 +2803,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2824,10 +2820,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2849,13 +2845,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2906,7 +2902,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2915,10 +2911,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2935,11 +2931,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2952,25 +2948,25 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -3019,7 +3015,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3031,7 +3027,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -3043,12 +3039,12 @@
         <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3059,31 +3055,31 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -3132,25 +3128,25 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3161,7 +3157,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3181,22 +3177,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -3245,7 +3241,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3257,16 +3253,16 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3274,7 +3270,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3285,28 +3281,28 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3356,25 +3352,25 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3385,7 +3381,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3396,31 +3392,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3469,19 +3465,19 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -3498,7 +3494,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3509,28 +3505,28 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3580,22 +3576,22 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3609,7 +3605,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3620,7 +3616,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3632,13 +3628,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3689,19 +3685,19 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3718,7 +3714,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3726,31 +3722,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="I18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3776,49 +3772,49 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3829,7 +3825,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3849,22 +3845,22 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3913,25 +3909,25 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3942,7 +3938,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3953,7 +3949,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3965,51 +3961,51 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W20" t="s" s="2">
+      <c r="X20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
       </c>
@@ -4026,19 +4022,19 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -4055,39 +4051,39 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4137,25 +4133,25 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4166,7 +4162,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4177,31 +4173,31 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -4250,25 +4246,25 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4279,7 +4275,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4299,19 +4295,19 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4361,7 +4357,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4373,10 +4369,10 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4390,7 +4386,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4401,28 +4397,28 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4472,22 +4468,22 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4501,7 +4497,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4521,22 +4517,22 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4585,7 +4581,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4597,10 +4593,10 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4614,7 +4610,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4634,19 +4630,19 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4672,14 +4668,14 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4696,7 +4692,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4708,10 +4704,10 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4725,7 +4721,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4736,7 +4732,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4748,16 +4744,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4807,28 +4803,28 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AL27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4836,7 +4832,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4847,7 +4843,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4859,13 +4855,13 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4916,19 +4912,19 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4945,18 +4941,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4968,17 +4964,17 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -5027,28 +5023,28 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -5056,7 +5052,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5067,7 +5063,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -5079,16 +5075,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5138,28 +5134,28 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -5167,7 +5163,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5178,7 +5174,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -5190,19 +5186,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5251,28 +5247,28 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -5280,7 +5276,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5291,31 +5287,31 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5364,28 +5360,28 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5393,7 +5389,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5416,17 +5412,17 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5451,14 +5447,14 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5487,7 +5483,7 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>74</v>
@@ -5504,7 +5500,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5527,13 +5523,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5584,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5596,7 +5592,7 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
@@ -5608,12 +5604,12 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5636,13 +5632,13 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5693,7 +5689,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5705,7 +5701,7 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
@@ -5722,7 +5718,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5745,13 +5741,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5802,7 +5798,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5814,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
@@ -5826,12 +5822,12 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5854,13 +5850,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5911,7 +5907,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5923,7 +5919,7 @@
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
@@ -5935,12 +5931,12 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5963,19 +5959,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -6024,7 +6020,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6036,7 +6032,7 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
@@ -6053,7 +6049,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6076,13 +6072,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6133,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6145,7 +6141,7 @@
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>74</v>
@@ -6162,7 +6158,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6173,29 +6169,29 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6244,19 +6240,19 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
@@ -6273,7 +6269,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6284,25 +6280,25 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6329,11 +6325,11 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6351,19 +6347,19 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
@@ -6380,7 +6376,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6391,25 +6387,25 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6436,14 +6432,14 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6460,19 +6456,19 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -6489,7 +6485,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6509,16 +6505,16 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6545,14 +6541,14 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6569,7 +6565,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6581,7 +6577,7 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6598,7 +6594,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6609,28 +6605,28 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6680,19 +6676,19 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
@@ -6709,7 +6705,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6720,28 +6716,28 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6791,19 +6787,19 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
@@ -6820,7 +6816,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6831,29 +6827,29 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6902,19 +6898,19 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -6931,7 +6927,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6942,25 +6938,25 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7011,19 +7007,19 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
@@ -7040,7 +7036,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7051,29 +7047,29 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7098,14 +7094,14 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7122,19 +7118,19 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
@@ -7151,7 +7147,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7171,20 +7167,20 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7233,7 +7229,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7245,7 +7241,7 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -7262,7 +7258,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7273,29 +7269,29 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7344,19 +7340,19 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7373,7 +7369,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7381,10 +7377,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7396,13 +7392,13 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7453,7 +7449,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7465,7 +7461,7 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
@@ -7482,7 +7478,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7493,7 +7489,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7505,13 +7501,13 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7562,40 +7558,40 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7614,16 +7610,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7673,7 +7669,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7685,7 +7681,7 @@
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>74</v>
@@ -7697,16 +7693,16 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7719,25 +7715,25 @@
         <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7786,7 +7782,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7798,7 +7794,7 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
@@ -7810,12 +7806,12 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7826,7 +7822,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7838,13 +7834,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7895,19 +7891,19 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
@@ -7924,7 +7920,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7935,7 +7931,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7947,13 +7943,13 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8004,19 +8000,19 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
@@ -8033,7 +8029,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8041,7 +8037,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>76</v>
@@ -8056,13 +8052,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8101,19 +8097,19 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AB57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AB57" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8125,7 +8121,7 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
@@ -8142,7 +8138,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8153,7 +8149,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -8165,13 +8161,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8222,40 +8218,40 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8274,16 +8270,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8333,7 +8329,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8345,7 +8341,7 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
@@ -8357,16 +8353,16 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8379,25 +8375,25 @@
         <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M60" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8446,7 +8442,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8458,7 +8454,7 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
@@ -8470,12 +8466,12 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8486,7 +8482,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8498,13 +8494,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8531,11 +8527,11 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8553,19 +8549,19 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
@@ -8582,7 +8578,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8593,7 +8589,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8605,13 +8601,13 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8662,19 +8658,19 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
@@ -8691,7 +8687,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8699,10 +8695,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8714,16 +8710,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8773,19 +8769,19 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
@@ -8802,20 +8798,20 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8827,13 +8823,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8884,7 +8880,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8896,7 +8892,7 @@
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -8913,7 +8909,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8924,7 +8920,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8936,13 +8932,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8993,40 +8989,40 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9045,16 +9041,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9104,7 +9100,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9116,7 +9112,7 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
@@ -9128,16 +9124,16 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9150,25 +9146,25 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -9217,7 +9213,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9229,7 +9225,7 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
@@ -9241,12 +9237,12 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9254,10 +9250,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -9269,13 +9265,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9287,7 +9283,7 @@
         <v>74</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>74</v>
@@ -9302,11 +9298,11 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -9324,19 +9320,19 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>74</v>
@@ -9353,7 +9349,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9364,7 +9360,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
@@ -9376,13 +9372,13 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9433,19 +9429,19 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
@@ -9462,7 +9458,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9470,10 +9466,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9485,16 +9481,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9544,19 +9540,19 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -9573,20 +9569,20 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9598,13 +9594,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9655,7 +9651,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9667,7 +9663,7 @@
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>74</v>
@@ -9684,7 +9680,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9695,7 +9691,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9707,13 +9703,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9764,40 +9760,40 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9816,16 +9812,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9875,7 +9871,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9887,7 +9883,7 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
@@ -9899,16 +9895,16 @@
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9921,25 +9917,25 @@
         <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9988,7 +9984,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10000,7 +9996,7 @@
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>74</v>
@@ -10012,12 +10008,12 @@
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10025,10 +10021,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
@@ -10040,13 +10036,13 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10058,7 +10054,7 @@
         <v>74</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>74</v>
@@ -10073,11 +10069,11 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
@@ -10095,19 +10091,19 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
@@ -10124,7 +10120,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10135,7 +10131,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -10147,13 +10143,13 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10204,19 +10200,19 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
@@ -10233,7 +10229,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10241,10 +10237,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -10256,16 +10252,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10315,19 +10311,19 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
@@ -10344,20 +10340,20 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>74</v>
@@ -10369,13 +10365,13 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10426,7 +10422,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10438,7 +10434,7 @@
         <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>74</v>
@@ -10455,7 +10451,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10466,7 +10462,7 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
@@ -10478,13 +10474,13 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10535,40 +10531,40 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10587,16 +10583,16 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10646,7 +10642,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10658,7 +10654,7 @@
         <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
@@ -10670,16 +10666,16 @@
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10692,25 +10688,25 @@
         <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10759,7 +10755,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10771,7 +10767,7 @@
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>74</v>
@@ -10783,12 +10779,12 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10796,10 +10792,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>74</v>
@@ -10811,13 +10807,13 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10829,7 +10825,7 @@
         <v>74</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>74</v>
@@ -10844,11 +10840,11 @@
         <v>74</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>74</v>
@@ -10866,19 +10862,19 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>74</v>
@@ -10895,7 +10891,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10906,7 +10902,7 @@
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>74</v>
@@ -10918,13 +10914,13 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10975,19 +10971,19 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
@@ -11004,7 +11000,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11012,10 +11008,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -11027,16 +11023,16 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11086,19 +11082,19 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>74</v>
@@ -11115,10 +11111,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>74</v>
@@ -11140,13 +11136,13 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11197,7 +11193,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11209,7 +11205,7 @@
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>74</v>
@@ -11226,7 +11222,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11237,7 +11233,7 @@
         <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>74</v>
@@ -11249,13 +11245,13 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11306,40 +11302,40 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11358,16 +11354,16 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11417,7 +11413,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11429,7 +11425,7 @@
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>74</v>
@@ -11441,16 +11437,16 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11463,25 +11459,25 @@
         <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M88" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
@@ -11530,7 +11526,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11542,7 +11538,7 @@
         <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>74</v>
@@ -11554,12 +11550,12 @@
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11567,10 +11563,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>74</v>
@@ -11582,13 +11578,13 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11600,7 +11596,7 @@
         <v>74</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>74</v>
@@ -11615,11 +11611,11 @@
         <v>74</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>74</v>
@@ -11637,19 +11633,19 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>74</v>
@@ -11666,7 +11662,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11677,7 +11673,7 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>74</v>
@@ -11689,13 +11685,13 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11746,19 +11742,19 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>74</v>
@@ -11775,7 +11771,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11783,10 +11779,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>74</v>
@@ -11798,16 +11794,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11857,19 +11853,19 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
@@ -11886,7 +11882,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11909,13 +11905,13 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11966,7 +11962,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11978,7 +11974,7 @@
         <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>74</v>
@@ -11995,7 +11991,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12006,7 +12002,7 @@
         <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>74</v>
@@ -12018,13 +12014,13 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12075,40 +12071,40 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12127,16 +12123,16 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12186,7 +12182,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -12198,7 +12194,7 @@
         <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>74</v>
@@ -12210,16 +12206,16 @@
         <v>74</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12232,25 +12228,25 @@
         <v>74</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>74</v>
@@ -12299,7 +12295,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -12311,7 +12307,7 @@
         <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>74</v>
@@ -12323,12 +12319,12 @@
         <v>74</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12339,7 +12335,7 @@
         <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>74</v>
@@ -12351,13 +12347,13 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12408,19 +12404,19 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>74</v>
@@ -12437,7 +12433,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12448,7 +12444,7 @@
         <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>74</v>
@@ -12460,13 +12456,13 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12517,19 +12513,19 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>74</v>
@@ -12546,7 +12542,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12557,7 +12553,7 @@
         <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>74</v>
@@ -12569,13 +12565,13 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12626,19 +12622,19 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
@@ -12655,7 +12651,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12678,16 +12674,16 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12737,7 +12733,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -12749,7 +12745,7 @@
         <v>74</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>74</v>
@@ -12766,7 +12762,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12777,7 +12773,7 @@
         <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>74</v>
@@ -12789,13 +12785,13 @@
         <v>74</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12846,40 +12842,40 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12898,16 +12894,16 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M101" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12957,7 +12953,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -12969,7 +12965,7 @@
         <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>74</v>
@@ -12981,16 +12977,16 @@
         <v>74</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13003,25 +12999,25 @@
         <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L102" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M102" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>74</v>
@@ -13070,7 +13066,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13082,7 +13078,7 @@
         <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>74</v>
@@ -13094,12 +13090,12 @@
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13110,7 +13106,7 @@
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>74</v>
@@ -13122,13 +13118,13 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13179,19 +13175,19 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>74</v>
@@ -13208,7 +13204,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13219,7 +13215,7 @@
         <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>74</v>
@@ -13231,13 +13227,13 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13288,19 +13284,19 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>74</v>
@@ -13317,7 +13313,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13325,10 +13321,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>74</v>
@@ -13340,13 +13336,13 @@
         <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13397,19 +13393,19 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
@@ -13426,7 +13422,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13449,16 +13445,16 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13508,7 +13504,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -13520,7 +13516,7 @@
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>74</v>
@@ -13537,7 +13533,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13548,7 +13544,7 @@
         <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>74</v>
@@ -13560,13 +13556,13 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13617,40 +13613,40 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13669,16 +13665,16 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L108" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M108" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -13728,7 +13724,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -13740,7 +13736,7 @@
         <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>74</v>
@@ -13752,16 +13748,16 @@
         <v>74</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13774,25 +13770,25 @@
         <v>74</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L109" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M109" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>74</v>
@@ -13841,7 +13837,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -13853,7 +13849,7 @@
         <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>74</v>
@@ -13865,12 +13861,12 @@
         <v>74</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13881,7 +13877,7 @@
         <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>74</v>
@@ -13893,13 +13889,13 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13950,19 +13946,19 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>74</v>
@@ -13979,7 +13975,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14002,13 +13998,13 @@
         <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14035,14 +14031,14 @@
         <v>74</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X111" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y111" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Y111" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="Z111" t="s" s="2">
         <v>74</v>
       </c>
@@ -14059,7 +14055,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14071,7 +14067,7 @@
         <v>74</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>74</v>
@@ -14088,7 +14084,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14099,7 +14095,7 @@
         <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>74</v>
@@ -14111,13 +14107,13 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14168,19 +14164,19 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>74</v>
@@ -14197,7 +14193,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14205,10 +14201,10 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>74</v>
@@ -14220,13 +14216,13 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14277,19 +14273,19 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>74</v>
